--- a/Parts/Material_library.xlsx
+++ b/Parts/Material_library.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/mneumark_tudelft_nl/Documents/Bureaublad/Matan Neumark/TUDelft Master Aerospace Engineering/Year 1/Q3/AE4204 Knowledge based engineering/Assignment/KBE_wingstruc/Parts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/mneumark_tudelft_nl/Documents/Bureaublad/Matan Neumark/TUDelft Master Aerospace Engineering/Year 1/Q3/AE4204 Knowledge based engineering/Assignment/KBE_newgit/Parts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{74AD2F07-86B1-44BE-A702-3891AFE25706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CC5723D-C194-4AB7-B480-5D8E36E5D6AC}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{74AD2F07-86B1-44BE-A702-3891AFE25706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3D7ED91-76A3-4DC2-84F6-D8624E098D2D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{46BD0DAA-0754-45C4-B86E-B6E7894FE101}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Material</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Elastic modulus</t>
   </si>
   <si>
-    <t>possion ratio</t>
-  </si>
-  <si>
     <t>6.9e10</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>316L Stainless Steel</t>
   </si>
   <si>
-    <t>2e11</t>
-  </si>
-  <si>
     <t>0.265</t>
   </si>
   <si>
@@ -87,6 +81,30 @@
   </si>
   <si>
     <t>Aluminium 6061 T6</t>
+  </si>
+  <si>
+    <t>Possion ratio</t>
+  </si>
+  <si>
+    <t>Yield strength</t>
+  </si>
+  <si>
+    <t>3.45e8</t>
+  </si>
+  <si>
+    <t>5.05e8</t>
+  </si>
+  <si>
+    <t>2.75e8</t>
+  </si>
+  <si>
+    <t>2.2e8</t>
+  </si>
+  <si>
+    <t>1.72e8</t>
+  </si>
+  <si>
+    <t>2.0e11</t>
   </si>
 </sst>
 </file>
@@ -463,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0551FE17-FD50-4F08-AED3-6A0347A04FD6}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,7 +494,7 @@
     <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,77 +505,95 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>2810</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>2700</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>5</v>
+      <c r="E3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>2780</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>7800</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>8027</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
